--- a/app/reports/templates/report_progress_project_pril_1_2.xlsx
+++ b/app/reports/templates/report_progress_project_pril_1_2.xlsx
@@ -58,10 +58,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -195,7 +196,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,7 +213,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,11 +221,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,7 +314,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -949,11 +954,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36209541"/>
-        <c:axId val="77182511"/>
+        <c:axId val="1832611"/>
+        <c:axId val="17314116"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36209541"/>
+        <c:axId val="1832611"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,14 +991,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77182511"/>
+        <c:crossAx val="17314116"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77182511"/>
+        <c:axId val="17314116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1038,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36209541"/>
+        <c:crossAx val="1832611"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1085,7 +1090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1564,11 +1569,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="0"/>
-        <c:axId val="73628136"/>
-        <c:axId val="98453697"/>
+        <c:axId val="57466780"/>
+        <c:axId val="5889268"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73628136"/>
+        <c:axId val="57466780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,14 +1605,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98453697"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="5889268"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98453697"/>
+        <c:axId val="5889268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1638,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73628136"/>
+        <c:crossAx val="57466780"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1694,9 +1699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>392400</xdr:colOff>
+      <xdr:colOff>392040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1705,7 +1710,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1295640" y="790200"/>
-        <a:ext cx="5857920" cy="3008880"/>
+        <a:ext cx="5857560" cy="3008520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1729,9 +1734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>515520</xdr:colOff>
+      <xdr:colOff>515160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1740,7 +1745,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="343080" y="733320"/>
-        <a:ext cx="6933600" cy="3028320"/>
+        <a:ext cx="6933240" cy="3027960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1839,7 +1844,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1963,17 +1968,17 @@
       <c r="B10" s="5"/>
       <c r="F10" s="7"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5"/>
       <c r="F11" s="7"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
@@ -1981,7 +1986,7 @@
       <c r="B12" s="5"/>
       <c r="F12" s="7"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1990,8 +1995,8 @@
       <c r="B13" s="5"/>
       <c r="F13" s="7"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
@@ -2002,46 +2007,46 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5"/>
       <c r="F15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5"/>
       <c r="F16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5"/>
       <c r="F17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5"/>
       <c r="F18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5"/>
       <c r="F19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5"/>
